--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_23_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_23_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,166 +518,1046 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_23_6_2</t>
+          <t>model_23_6_14</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9269087509843409</v>
+        <v>0.9317965721902233</v>
       </c>
       <c r="C2" t="n">
-        <v>0.793718835821295</v>
+        <v>0.8280433922889934</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3398926586346548</v>
+        <v>0.9498317615109294</v>
       </c>
       <c r="E2" t="n">
-        <v>0.923719228471787</v>
+        <v>0.8982007244589394</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8706057119384878</v>
+        <v>0.9335454501842981</v>
       </c>
       <c r="G2" t="n">
-        <v>0.488761518721968</v>
+        <v>0.4560766358118852</v>
       </c>
       <c r="H2" t="n">
-        <v>1.379403094700423</v>
+        <v>1.149874627550874</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4588654944125788</v>
+        <v>0.7095750361562362</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5241855801713459</v>
+        <v>1.286736498992063</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4915256524475334</v>
+        <v>0.9981557675741496</v>
       </c>
       <c r="L2" t="n">
-        <v>1.887614807152022</v>
+        <v>0.8851820807664548</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6991148108300724</v>
+        <v>0.6753344621829136</v>
       </c>
       <c r="N2" t="n">
-        <v>1.103187645669166</v>
+        <v>1.096287192202038</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7288775756942761</v>
+        <v>0.7040848483730997</v>
       </c>
       <c r="P2" t="n">
-        <v>83.43176120048538</v>
+        <v>83.57018884519488</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.4056700200816</v>
+        <v>133.5440976647911</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_23_6_1</t>
+          <t>model_23_6_13</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9261028722923597</v>
+        <v>0.9315212375508556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7932057195060533</v>
+        <v>0.8280421148887296</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3330306097056673</v>
+        <v>0.9505193892504705</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9256307118006661</v>
+        <v>0.8978920275077862</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8717068250575323</v>
+        <v>0.9337393178695154</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4941504332459769</v>
+        <v>0.4579177998131367</v>
       </c>
       <c r="H3" t="n">
-        <v>1.382834305863128</v>
+        <v>1.149883169532321</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4636355632743647</v>
+        <v>0.6998492914850686</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5110502647089714</v>
+        <v>1.290638409217506</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4873428917371099</v>
+        <v>0.9952438503512875</v>
       </c>
       <c r="L3" t="n">
-        <v>1.904457303390087</v>
+        <v>0.8808397721041965</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7029583438909996</v>
+        <v>0.6766962389530008</v>
       </c>
       <c r="N3" t="n">
-        <v>1.104325356763727</v>
+        <v>1.096675899928204</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7328847359148172</v>
+        <v>0.705504598799556</v>
       </c>
       <c r="P3" t="n">
-        <v>83.4098305748208</v>
+        <v>83.5621311747326</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.383739394417</v>
+        <v>133.5360399943288</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>model_23_6_15</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9320479164032045</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8280245842596965</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9491082588640134</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.898497445738662</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9333296524848179</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4543958959023462</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.150000396929386</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7198081922786378</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.282985960507212</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.001397076392925</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8895052418868959</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6740889376798482</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.095932353313123</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.7027862993133477</v>
+      </c>
+      <c r="P4" t="n">
+        <v>83.57757288704207</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>133.5514817066383</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>model_23_6_12</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9312213853585809</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8280202465173092</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9511705595365443</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8975709716018366</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9339108199863184</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4599229128035697</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.150029403432704</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6906391977444779</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.2946965358614</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9926678668029389</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8764763681912673</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.678176166496265</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.097099220670239</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.7070475299222093</v>
+      </c>
+      <c r="P5" t="n">
+        <v>83.55339276880808</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>133.5273015884043</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>model_23_6_16</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9322758218690317</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8279861820459902</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9483497945415764</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8987824769344099</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9330924749154483</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4528718910029514</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.150257192709266</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.7305358431833774</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.279383183955306</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.004959513569342</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8938051820094279</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.6729575699871065</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.095610604420191</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.701606766955672</v>
+      </c>
+      <c r="P6" t="n">
+        <v>83.58429198962585</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>133.5582008092221</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>model_23_6_11</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9308964409549598</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8279772699984622</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9517842409024713</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8972373819967993</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9340593973607162</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4620958175268154</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.150316787612121</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6819593439060588</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.298913087680699</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.9904362157933789</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8721031219261384</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.6797762996212912</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.097557965710645</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.7087157840271</v>
+      </c>
+      <c r="P7" t="n">
+        <v>83.54396602432008</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>133.5178748439163</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>model_23_6_17</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.932480652297411</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8279286926847332</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.947556810888515</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8990560607981435</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9328342278882127</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4515021889852225</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.150641624332705</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.7417517323841709</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.275925100966699</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.008838416675435</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8980775821016012</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.6719391259520631</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.095321432050714</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.700544965649587</v>
+      </c>
+      <c r="P8" t="n">
+        <v>83.59035011577215</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>133.5642589353684</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>model_23_6_10</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9305460526442627</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.827912689818703</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9523598700692839</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8968910271485085</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9341846873569331</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4644388657738368</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.150748635571536</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6738176969366793</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.303290991379225</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.988554344157952</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8681351351298733</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.6814975170709258</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.098052631561041</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.7105102772669769</v>
+      </c>
+      <c r="P9" t="n">
+        <v>83.53385068472686</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>133.5077595043231</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>model_23_6_18</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9326629573577059</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8278526064718473</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9467304075078908</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8993182541149304</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9325554530245743</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4502831142075919</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.151150413188618</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.7534403071945798</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.272610993781668</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.013025650488124</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9023257994260265</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.6710313809410048</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.095064060200886</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.6995985760541167</v>
+      </c>
+      <c r="P10" t="n">
+        <v>83.59575750272305</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>133.5696663223193</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>model_23_6_9</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9301696706922982</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8278259693254494</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9528967754942901</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8965315504287811</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9342862237339922</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4669557336197031</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.151328535909234</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6662237550755505</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.307834754714994</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9870292548952719</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.8641537945735466</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.6833415936555473</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.098583994316755</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.7124328600095705</v>
+      </c>
+      <c r="P11" t="n">
+        <v>83.52304162925778</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>133.496950448854</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>model_23_6_8</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9297667021509408</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8277166173016579</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9533940282438885</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8961586562382596</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9343634447419621</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4696503861112596</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.152059773395847</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.6591906570756694</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.312548114045458</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9858693855605638</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.8601610477479814</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.6853104304702065</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.099152891081025</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.7144855142834838</v>
+      </c>
+      <c r="P12" t="n">
+        <v>83.51153344083282</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>133.4854422604291</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>model_23_6_7</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9293366366225745</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8275841151220957</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9538511369159407</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8957720063795991</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9344159767108676</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.4725262362797145</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.152945816080696</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.6527253532845179</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.317435344163986</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9850803487242521</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.8561662517944464</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.6874054380638216</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.099760042415189</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.7166697106876229</v>
+      </c>
+      <c r="P13" t="n">
+        <v>83.49932401414394</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>133.4732328337402</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>model_23_6_6</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9288790074538931</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8274279325996013</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9542672741525985</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8953714028213485</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9344433467692057</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4755864046378754</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.153990209327771</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6468395457768104</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.322498948175778</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.984669246976294</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.8521667994694597</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.6896277290233299</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.100406107123916</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.7189866091740539</v>
+      </c>
+      <c r="P14" t="n">
+        <v>83.48641340056166</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>133.4603222201579</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_23_6_5</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.928393304083005</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8272475591582131</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9546418391691273</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8949564571013502</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9344451085964275</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.4788343053154628</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.155196367360876</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.641541731997598</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.327743836218297</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9846427841079475</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.8481635589608925</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6919785439704491</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.101091806000464</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.7214375031803297</v>
+      </c>
+      <c r="P15" t="n">
+        <v>83.47280131867284</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>133.4467101382691</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_23_6_4</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9278789000215916</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8270424167285526</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9549739513333769</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8945267613043375</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9344206759256737</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4822741276427474</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.15656815573261</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6368443675285076</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.333175164315093</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.9850097659218002</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.8441604175256718</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6944595939597548</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.10181802349893</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.7240241766041615</v>
+      </c>
+      <c r="P16" t="n">
+        <v>83.45848519409525</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>133.4323940136915</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_23_6_3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9273354503409555</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8268120265596756</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9552632037204811</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8940823176346514</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9343698580912494</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4859081781595159</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.158108775852741</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6327532078781164</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.338792904603435</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9857730562407756</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.8401586686138125</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.6970711428251178</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.102585246577475</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.7267469045113746</v>
+      </c>
+      <c r="P17" t="n">
+        <v>83.44347121352008</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>133.4173800331163</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_23_6_2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9267622502358596</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8265558256520285</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9555086664249303</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8936224283780478</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9342919236890737</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4897411699016366</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.159821992501874</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6292814055459995</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.344605876147888</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.986943640846944</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.8361604739228886</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.6998150969374958</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.103394470255257</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.7296076744310844</v>
+      </c>
+      <c r="P18" t="n">
+        <v>83.42775650425563</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>133.4016653238519</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_23_6_1</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.926158768587498</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8262732832875623</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9557098228039755</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8931468983632276</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9341865473456806</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4937766544630079</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.161711354594047</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.6264362678805586</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.350616545901512</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9885264068910355</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.832168053960211</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7026924323365151</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.104246444347062</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.7326075039549456</v>
+      </c>
+      <c r="P19" t="n">
+        <v>83.41134396100266</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>133.3852527805989</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
           <t>model_23_6_0</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.9252701220235666</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7926723268773583</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3260083402586927</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9275188948601908</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8727721612397288</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.4997190381278578</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.386401104827258</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4685170074573963</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.4980750638464507</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.4832960356519235</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.921446912458482</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.7069080832243028</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.105501004202024</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.7370026238286267</v>
-      </c>
-      <c r="P4" t="n">
-        <v>83.38741852448508</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>133.3613273440813</v>
+      <c r="B20" t="n">
+        <v>0.9255245645298229</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8259638906101117</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9558660134492286</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.892655366205477</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9340532665319212</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4980175799169224</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.163780264852782</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6242271214945067</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.356829481744567</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9905283016195368</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.828365461275311</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7057036062802303</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.105141791252015</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.7357468698074341</v>
+      </c>
+      <c r="P20" t="n">
+        <v>83.39423980308511</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>133.3681486226813</v>
       </c>
     </row>
   </sheetData>
